--- a/2018-2022/SDI_2022_Data_Dictionary.xlsx
+++ b/2018-2022/SDI_2022_Data_Dictionary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngladish/Desktop/SDVI/SDI/SDI 2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngladish/Desktop/SDI/SDI 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2443CF66-5C49-B040-B240-6A54FEE3C276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD54024-1960-E546-A83F-261B869BF64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{12537F6B-4BAC-3D4C-8E8A-A3A58654E0C5}"/>
+    <workbookView xWindow="16480" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{12537F6B-4BAC-3D4C-8E8A-A3A58654E0C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="SDI" sheetId="2" r:id="rId1"/>
+    <sheet name="RGC SDI" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -228,7 +228,7 @@
     <t>(B23001_008 + B23001_009 + B23001_015 + B23001_016 + B23001_022 + B23001_023 + B23001_029 + B23001_030 + B23001_036 + B23001_037 + B23001_043 + B23001_044 + B23001_050 + B23001_051 + B23001_057 + B23001_058 + B23001_064 + B23001_065 + B23001_071 + B23001_072 + B23001_094 + B23001_095 + B23001_101 + B23001_102 + B23001_108 + B23001_109 + B23001_115 + B23001_116 + B23001_122 + B23001_123 + B23001_129 + B23001_130 + B23001_136 + B23001_137 + B23001_143 + B23001_144 + B23001_150 + B23001_151 + B23001_157 + B23001_158)/ (B23001_006 + B23001_009 +  B23001_013 +  B23001_016 + B23001_020 + B23001_023 +  B23001_027 + B23001_030 + B23001_034 +  B23001_037 +  B23001_041 + B23001_044 + B23001_048 + B23001_051 +  B23001_055 + B23001_058 + B23001_062 + B23001_065 + B23001_069 + B23001_072 + B23001_092 + B23001_095 + B23001_099 + B23001_102 +  B23001_106 + B23001_109 + B23001_113 + B23001_116 + B23001_120 + B23001_123 + B23001_127 + B23001_130 + B23001_134 + B23001_137 + B23001_141 + B23001_144 + B23001_148 + B23001_151 + B23001_155 + B23001_158)</t>
   </si>
   <si>
-    <t>2022 (Counties = 3,144; Census Tracts = 83,617; ZCTA = 33,187)</t>
+    <t>2021 (Counties = 3,144; Census Tracts = 83,617)</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
   <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="239" customHeight="1" x14ac:dyDescent="0.2"/>
